--- a/data/trans_camb/P54_A_5_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P54_A_5_R-Estudios-trans_camb.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-12,16</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-12,16</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,57</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,74</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-10,12</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,17</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,26; -3,78</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,26; -3,78</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,09; -2,48</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,53; 1,71</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,33; -3,54</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,76; -2,71</t>
         </is>
       </c>
     </row>
@@ -677,32 +677,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-78,63%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-90,61%</t>
         </is>
       </c>
     </row>
@@ -757,32 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-11,3</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-11,3</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-11,31</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-12,43</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-11,3</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-11,88</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,53; -3,44</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,25; -3,61</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,53; -5,76</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,18; -7,41</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,87; -6,8</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,16; -7,45</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-90,98%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-95,13%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -881,7 +881,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -53,12</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -891,7 +891,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -79,3</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-12,24</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-13,08</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-14,8</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-14,31</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-13,7</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-13,8</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,71; -6,1</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,97; -6,89</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,57; -9,66</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,93; -8,95</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,7; -9,61</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,66; -9,66</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-93,56%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-96,68%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-97,39%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-98,07%</t>
         </is>
       </c>
     </row>
@@ -1027,7 +1027,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -39,81</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1042,24 +1042,24 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -78,09</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -83,78</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -88,7</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1212,14 +1212,178 @@
         </is>
       </c>
     </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>-11,78</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-12,09</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-12,57</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>-12,62</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>-12,21</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>-12,39</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-22,36; -6,92</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-21,89; -7,12</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-16,8; -9,18</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-16,96; -9,13</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-16,96; -9,33</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-17,05; -9,51</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>-97,4%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-96,18%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>-96,56%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>-96,72%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>-98,13%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; -82,31</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; -84,4</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; -86,27</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-99,04; -88,9</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; -92,23</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>

--- a/data/trans_camb/P54_A_5_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P54_A_5_R-Estudios-trans_camb.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -118,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -131,6 +134,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,7 +506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -599,467 +608,283 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-12,16</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-12,16</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-8,57</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-6,74</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-10,12</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-9,17</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-12.15688760090483</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-12.15688760090483</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-8.568308890064857</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>-6.118108627840262</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>-10.11666371245262</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>-8.707966175810853</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-29,26; -3,78</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-29,26; -3,78</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-21,09; -2,48</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-18,53; 1,71</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-20,33; -3,54</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-19,76; -2,71</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-30.72698531850013</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-32.7522797129343</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-21.48048209346888</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-18.7081193875867</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-20.17026881666578</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>-18.74047069699246</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-78,63%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-90,61%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>-3.731440837182957</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>-3.737660112824549</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>-2.556615783965657</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>2.575270708918099</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>-3.47112372302501</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>-2.252288674102097</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>-0.7140392236482445</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>-0.860754733311161</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Secundaria o FP grado sup</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-11,3</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-11,3</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-11,31</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-12,43</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-11,3</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-11,88</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="inlineStr"/>
+      <c r="D8" s="6" t="inlineStr"/>
+      <c r="E8" s="6" t="inlineStr"/>
+      <c r="F8" s="6" t="inlineStr"/>
+      <c r="G8" s="6" t="inlineStr"/>
+      <c r="H8" s="6" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-31,53; -3,44</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-29,25; -3,61</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-17,53; -5,76</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-19,18; -7,41</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-20,87; -6,8</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-21,16; -7,45</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="inlineStr"/>
+      <c r="D9" s="6" t="inlineStr"/>
+      <c r="E9" s="6" t="inlineStr"/>
+      <c r="F9" s="6" t="inlineStr"/>
+      <c r="G9" s="6" t="inlineStr"/>
+      <c r="H9" s="6" t="n">
+        <v>0.2342683116417357</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-90,98%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-95,13%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>-11.2970383789717</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-11.2970383789717</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-11.21547271696463</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-12.434462392198</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>-11.22893633244216</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>-11.87865129017293</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; -53,12</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; -79,3</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-33.22854293943815</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-32.56993259440732</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-17.92354617160324</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-18.95932925089267</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-22.25749629196529</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>-22.49736015131391</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-12,24</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-13,08</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-14,8</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-14,31</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-13,7</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>-13,8</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>-3.521414876798813</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>-3.63386473269035</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>-5.810600220152025</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>-7.395324155350351</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>-6.882356154662657</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>-7.416039892095669</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-20,71; -6,1</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-20,97; -6,89</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-21,57; -9,66</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-20,93; -8,95</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-18,7; -9,61</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-18,66; -9,66</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>-0.9019668372636503</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>-0.9453039792263053</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-93,56%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-96,68%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>-97,39%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>-98,07%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="inlineStr"/>
+      <c r="D14" s="6" t="inlineStr"/>
+      <c r="E14" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F14" s="6" t="inlineStr"/>
+      <c r="G14" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H14" s="6" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; -39,81</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; -78,09</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; -83,78</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; -88,7</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="inlineStr"/>
+      <c r="D15" s="6" t="inlineStr"/>
+      <c r="E15" s="6" t="n">
+        <v>-0.5204089003517477</v>
+      </c>
+      <c r="F15" s="6" t="inlineStr"/>
+      <c r="G15" s="6" t="n">
+        <v>-0.7917650093507513</v>
+      </c>
+      <c r="H15" s="6" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1067,325 +892,320 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>-12.03514757368684</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>-13.0845024085407</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>-14.80451501659691</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>-14.22112575816213</v>
+      </c>
+      <c r="G16" s="5" t="n">
+        <v>-13.63363587599064</v>
+      </c>
+      <c r="H16" s="5" t="n">
+        <v>-13.74537717101485</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-20.51230144489949</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-20.93674154824081</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-21.40742247584555</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>-21.08094753059747</v>
+      </c>
+      <c r="G17" s="5" t="n">
+        <v>-18.46751616184652</v>
+      </c>
+      <c r="H17" s="5" t="n">
+        <v>-18.30641168348335</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>-6.134191146833461</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>-6.871040324546314</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>-9.735567491625247</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>-9.202075605649824</v>
+      </c>
+      <c r="G18" s="5" t="n">
+        <v>-9.168754030759857</v>
+      </c>
+      <c r="H18" s="5" t="n">
+        <v>-9.447127643816676</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>-0.9198017011201808</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F19" s="6" t="n">
+        <v>-0.9605938284516072</v>
+      </c>
+      <c r="G19" s="6" t="n">
+        <v>-0.9688736434055438</v>
+      </c>
+      <c r="H19" s="6" t="n">
+        <v>-0.9768145328802008</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A20" s="1" t="n"/>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>-11,78</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>-12,09</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>-12,57</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>-12,62</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>-12,21</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>-12,39</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D20" s="6" t="inlineStr"/>
+      <c r="E20" s="6" t="inlineStr"/>
+      <c r="F20" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G20" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H20" s="6" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>-22,36; -6,92</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>-21,89; -7,12</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>-16,8; -9,18</t>
-        </is>
-      </c>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>-16,96; -9,13</t>
-        </is>
-      </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>-16,96; -9,33</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>-17,05; -9,51</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>-0.5207184551482413</v>
+      </c>
+      <c r="D21" s="6" t="inlineStr"/>
+      <c r="E21" s="6" t="inlineStr"/>
+      <c r="F21" s="6" t="n">
+        <v>-0.7357423811594318</v>
+      </c>
+      <c r="G21" s="6" t="n">
+        <v>-0.813296377903032</v>
+      </c>
+      <c r="H21" s="6" t="n">
+        <v>-0.8732148150698534</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n"/>
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>-97,4%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>-96,18%</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>-96,56%</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>-96,72%</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>-98,13%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>-11.70191785274569</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>-12.0923110551999</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>-12.50910844838947</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>-12.52361549873664</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>-12.1394048133589</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>-12.3246128334552</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; -82,31</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; -84,4</t>
-        </is>
-      </c>
-      <c r="F23" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; -86,27</t>
-        </is>
-      </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>-99,04; -88,9</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; -92,23</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-23.36582918413456</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-23.27723586371371</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-16.98890373533218</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>-16.75954630052231</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>-16.60310909827826</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>-17.09744797699917</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>-6.79317171662408</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>-7.580160907600416</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>-9.188305477606507</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>-9.180333194170862</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>-9.272038198285552</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>-9.208852438815741</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>-0.9677155838390104</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>-0.9570498130978112</v>
+      </c>
+      <c r="F25" s="6" t="n">
+        <v>-0.958159721919902</v>
+      </c>
+      <c r="G25" s="6" t="n">
+        <v>-0.9615830985850363</v>
+      </c>
+      <c r="H25" s="6" t="n">
+        <v>-0.9762537438584371</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D26" s="6" t="inlineStr"/>
+      <c r="E26" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F26" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G26" s="6" t="n">
+        <v>-0.9904179336223659</v>
+      </c>
+      <c r="H26" s="6" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>-0.7333183834485285</v>
+      </c>
+      <c r="D27" s="6" t="inlineStr"/>
+      <c r="E27" s="6" t="n">
+        <v>-0.8603415413138016</v>
+      </c>
+      <c r="F27" s="6" t="n">
+        <v>-0.8577937603153513</v>
+      </c>
+      <c r="G27" s="6" t="n">
+        <v>-0.8914035908413208</v>
+      </c>
+      <c r="H27" s="6" t="n">
+        <v>-0.9082780293431261</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
+  <mergeCells count="8">
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A4:A9"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A10:A15"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
